--- a/Plantillas - Productos de Trabajo/Riesgos del  proyecto.xlsx
+++ b/Plantillas - Productos de Trabajo/Riesgos del  proyecto.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17260" tabRatio="774" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="774" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lluvia de riesgos" sheetId="1" r:id="rId1"/>
-    <sheet name="Log de Riesgos" sheetId="3" r:id="rId2"/>
-    <sheet name="Evaluacion Riesgo" sheetId="5" r:id="rId3"/>
-    <sheet name="R-1" sheetId="6" r:id="rId4"/>
-    <sheet name="R-2" sheetId="8" r:id="rId5"/>
-    <sheet name="R-3" sheetId="9" r:id="rId6"/>
-    <sheet name="R-4" sheetId="10" r:id="rId7"/>
-    <sheet name="R-5" sheetId="11" r:id="rId8"/>
-    <sheet name="R-6" sheetId="12" r:id="rId9"/>
-    <sheet name="R-7" sheetId="13" r:id="rId10"/>
+    <sheet name="Evaluacion Riesgo" sheetId="5" r:id="rId2"/>
+    <sheet name="R-1" sheetId="6" r:id="rId3"/>
+    <sheet name="R-2" sheetId="8" r:id="rId4"/>
+    <sheet name="R-3" sheetId="9" r:id="rId5"/>
+    <sheet name="R-4" sheetId="10" r:id="rId6"/>
+    <sheet name="R-5" sheetId="11" r:id="rId7"/>
+    <sheet name="R-6" sheetId="12" r:id="rId8"/>
+    <sheet name="R-7" sheetId="13" r:id="rId9"/>
+    <sheet name="Log de Riesgos" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -305,9 +305,6 @@
     <t>Capasitacion no cubre los objetivos</t>
   </si>
   <si>
-    <t>La plameacion inadecuada (cargas, fechas, rol)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mucho detalle en la planeacion </t>
   </si>
   <si>
@@ -327,13 +324,16 @@
   </si>
   <si>
     <t>Ignorar riesgos existentes</t>
+  </si>
+  <si>
+    <t>La planeacion inadecuada (cargas, fechas, rol)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,96 +460,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -879,18 +811,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,7 +866,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1357,7 +1289,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1368,7 +1300,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -1379,7 +1311,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1390,7 +1322,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -1398,7 +1330,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -1409,7 +1341,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -1420,7 +1352,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -2225,360 +2157,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
-    <mergeCell ref="A18:L20"/>
-    <mergeCell ref="D6:L8"/>
-    <mergeCell ref="A9:C11"/>
-    <mergeCell ref="D9:L11"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="D12:L14"/>
-    <mergeCell ref="A15:C17"/>
-    <mergeCell ref="D15:L17"/>
-    <mergeCell ref="A6:C8"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2608,7 +2201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="360">
+    <row r="2" spans="1:8" ht="378">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -2631,7 +2224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="180">
+    <row r="3" spans="1:8" ht="189">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2668,21 +2261,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="3"/>
+    <col min="10" max="10" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -2739,7 +2332,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="str">
         <f>'Lluvia de riesgos'!A4</f>
-        <v>La plameacion inadecuada (cargas, fechas, rol)</v>
+        <v>La planeacion inadecuada (cargas, fechas, rol)</v>
       </c>
       <c r="B4" s="3">
         <f>'Lluvia de riesgos'!B4</f>
@@ -5346,326 +4939,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
     <mergeCell ref="A6:C8"/>
     <mergeCell ref="D6:L8"/>
     <mergeCell ref="A18:L20"/>
@@ -5675,6 +5262,12 @@
     <mergeCell ref="D15:L17"/>
     <mergeCell ref="D12:L14"/>
     <mergeCell ref="D9:L11"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5686,326 +5279,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
     <mergeCell ref="A15:C17"/>
     <mergeCell ref="D15:L17"/>
     <mergeCell ref="A18:L20"/>
@@ -6015,6 +5602,351 @@
     <mergeCell ref="D9:L11"/>
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="D12:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="D15:L17"/>
+    <mergeCell ref="A18:L20"/>
+    <mergeCell ref="A6:C8"/>
+    <mergeCell ref="D6:L8"/>
+    <mergeCell ref="A9:C11"/>
+    <mergeCell ref="D9:L11"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="D12:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6026,325 +5958,319 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
     <mergeCell ref="A15:C17"/>
     <mergeCell ref="D15:L17"/>
     <mergeCell ref="A18:L20"/>
@@ -6354,6 +6280,12 @@
     <mergeCell ref="D9:L11"/>
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="D12:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6365,325 +6297,319 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
     <mergeCell ref="A15:C17"/>
     <mergeCell ref="D15:L17"/>
     <mergeCell ref="A18:L20"/>
@@ -6693,6 +6619,12 @@
     <mergeCell ref="D9:L11"/>
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="D12:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6704,325 +6636,319 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:L5"/>
     <mergeCell ref="A15:C17"/>
     <mergeCell ref="D15:L17"/>
     <mergeCell ref="A18:L20"/>
@@ -7032,6 +6958,12 @@
     <mergeCell ref="D9:L11"/>
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="D12:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7043,334 +6975,334 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:L20"/>
+    <mergeCell ref="D6:L8"/>
+    <mergeCell ref="A9:C11"/>
+    <mergeCell ref="D9:L11"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="D12:L14"/>
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="D15:L17"/>
+    <mergeCell ref="A6:C8"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="E1:L3"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="D4:F5"/>
     <mergeCell ref="G4:I5"/>
     <mergeCell ref="J4:L5"/>
-    <mergeCell ref="A15:C17"/>
-    <mergeCell ref="D15:L17"/>
-    <mergeCell ref="A18:L20"/>
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="D6:L8"/>
-    <mergeCell ref="A9:C11"/>
-    <mergeCell ref="D9:L11"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="D12:L14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
